--- a/output/1Y_P108_KFSDIV.xlsx
+++ b/output/1Y_P108_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>11.3141</v>
       </c>
       <c r="C2" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D2" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.003</v>
       </c>
       <c r="C3" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D3" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E3" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>908.843</v>
+        <v>907.0213</v>
       </c>
       <c r="H3" s="1">
-        <v>9725.0334</v>
+        <v>9686.1548</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9725.0334</v>
+        <v>9686.1548</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0275</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.1102</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E4" s="1">
-        <v>1792.6959</v>
+        <v>1789.1044</v>
       </c>
       <c r="F4" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="H4" s="1">
-        <v>19917.2104</v>
+        <v>19837.5894</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19917.2104</v>
+        <v>19837.5894</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.1564</v>
+        <v>11.1788</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0097</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>10.623</v>
       </c>
       <c r="C5" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D5" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E5" s="1">
-        <v>2692.7616</v>
+        <v>2687.3752</v>
       </c>
       <c r="F5" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="H5" s="1">
-        <v>28605.2069</v>
+        <v>28490.7457</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28605.2069</v>
+        <v>28490.7457</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.141</v>
+        <v>11.1633</v>
       </c>
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
       <c r="N5" s="1">
-        <v>161.3426</v>
+        <v>161.0194</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9838.6574</v>
+        <v>-9838.980600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0439</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>9.977</v>
       </c>
       <c r="C6" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E6" s="1">
-        <v>3634.1153</v>
+        <v>3626.8452</v>
       </c>
       <c r="F6" s="1">
-        <v>1004.3267</v>
+        <v>1002.3134</v>
       </c>
       <c r="H6" s="1">
-        <v>36257.5684</v>
+        <v>36112.4972</v>
       </c>
       <c r="I6" s="1">
-        <v>161.3426</v>
+        <v>161.0194</v>
       </c>
       <c r="J6" s="1">
-        <v>36418.911</v>
+        <v>36273.5166</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.0068</v>
+        <v>11.0289</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10020.1678</v>
+        <v>-10020.1274</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0566</v>
+        <v>-0.0576</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.5542</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E7" s="1">
-        <v>4638.442</v>
+        <v>4629.1586</v>
       </c>
       <c r="F7" s="1">
-        <v>949.401</v>
+        <v>947.4939000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>48955.045</v>
+        <v>48759.3904</v>
       </c>
       <c r="I7" s="1">
-        <v>141.1748</v>
+        <v>140.892</v>
       </c>
       <c r="J7" s="1">
-        <v>49096.2198</v>
+        <v>48900.2824</v>
       </c>
       <c r="K7" s="1">
-        <v>50020.1678</v>
+        <v>50020.1274</v>
       </c>
       <c r="L7" s="1">
-        <v>10.7838</v>
+        <v>10.8054</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10020.1678</v>
+        <v>-10020.1274</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0577</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.7815</v>
       </c>
       <c r="C8" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D8" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E8" s="1">
-        <v>5587.843</v>
+        <v>5576.6525</v>
       </c>
       <c r="F8" s="1">
-        <v>929.3853</v>
+        <v>927.5232999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>60245.3295</v>
+        <v>60004.2236</v>
       </c>
       <c r="I8" s="1">
-        <v>121.007</v>
+        <v>120.7645</v>
       </c>
       <c r="J8" s="1">
-        <v>60366.3365</v>
+        <v>60124.9882</v>
       </c>
       <c r="K8" s="1">
-        <v>60040.3357</v>
+        <v>60040.2548</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7448</v>
+        <v>10.7664</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10020.1678</v>
+        <v>-10020.1274</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0215</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.9292</v>
       </c>
       <c r="C9" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D9" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E9" s="1">
-        <v>6517.2283</v>
+        <v>6504.1759</v>
       </c>
       <c r="F9" s="1">
-        <v>916.8253999999999</v>
+        <v>914.9882</v>
       </c>
       <c r="H9" s="1">
-        <v>71228.092</v>
+        <v>70942.9976</v>
       </c>
       <c r="I9" s="1">
-        <v>100.8391</v>
+        <v>100.6371</v>
       </c>
       <c r="J9" s="1">
-        <v>71328.9311</v>
+        <v>71043.6347</v>
       </c>
       <c r="K9" s="1">
-        <v>70060.50350000001</v>
+        <v>70060.3823</v>
       </c>
       <c r="L9" s="1">
-        <v>10.75</v>
+        <v>10.7716</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10020.1678</v>
+        <v>-10020.1274</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0137</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.337</v>
       </c>
       <c r="C10" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D10" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E10" s="1">
-        <v>7434.0537</v>
+        <v>7419.1641</v>
       </c>
       <c r="F10" s="1">
-        <v>969.3497</v>
+        <v>967.4085</v>
       </c>
       <c r="H10" s="1">
-        <v>76845.8132</v>
+        <v>76538.32249999999</v>
       </c>
       <c r="I10" s="1">
-        <v>80.6713</v>
+        <v>80.5097</v>
       </c>
       <c r="J10" s="1">
-        <v>76926.48450000001</v>
+        <v>76618.8322</v>
       </c>
       <c r="K10" s="1">
-        <v>80080.6713</v>
+        <v>80080.5097</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7721</v>
+        <v>10.7937</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10020.1678</v>
+        <v>-10020.1274</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0541</v>
+        <v>-0.0546</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>9.6417</v>
       </c>
       <c r="C11" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E11" s="1">
-        <v>8403.403399999999</v>
+        <v>8386.5726</v>
       </c>
       <c r="F11" s="1">
-        <v>1039.2532</v>
+        <v>1037.1729</v>
       </c>
       <c r="H11" s="1">
-        <v>81023.0946</v>
+        <v>80698.9565</v>
       </c>
       <c r="I11" s="1">
-        <v>60.5035</v>
+        <v>60.3823</v>
       </c>
       <c r="J11" s="1">
-        <v>81083.5981</v>
+        <v>80759.3388</v>
       </c>
       <c r="K11" s="1">
-        <v>90100.8391</v>
+        <v>90100.63710000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7219</v>
+        <v>10.7434</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3345.3242</v>
+        <v>3338.6238</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6674.8437</v>
+        <v>-6681.5036</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0672</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>9.1572</v>
       </c>
       <c r="C12" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D12" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>9442.6566</v>
+        <v>9423.745500000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1276.9001</v>
+        <v>1273.97</v>
       </c>
       <c r="H12" s="1">
-        <v>86468.2953</v>
+        <v>86122.6681</v>
       </c>
       <c r="I12" s="1">
-        <v>3385.6598</v>
+        <v>3378.8787</v>
       </c>
       <c r="J12" s="1">
-        <v>89853.9552</v>
+        <v>89501.5468</v>
       </c>
       <c r="K12" s="1">
-        <v>100121.007</v>
+        <v>100120.7645</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6031</v>
+        <v>10.6243</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11692.8299</v>
+        <v>-11689.4393</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0135</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>9.597</v>
       </c>
       <c r="C13" s="1">
-        <v>9.597</v>
+        <v>9.5778</v>
       </c>
       <c r="D13" s="1">
-        <v>9.597</v>
+        <v>9.616199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>10719.5568</v>
+        <v>10697.7156</v>
       </c>
       <c r="F13" s="1">
-        <v>1218.3839</v>
+        <v>1215.5986</v>
       </c>
       <c r="H13" s="1">
-        <v>102875.5863</v>
+        <v>102460.5801</v>
       </c>
       <c r="I13" s="1">
-        <v>1692.8299</v>
+        <v>1689.4393</v>
       </c>
       <c r="J13" s="1">
-        <v>104568.4162</v>
+        <v>104150.0194</v>
       </c>
       <c r="K13" s="1">
-        <v>111813.8369</v>
+        <v>111810.2039</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4308</v>
+        <v>10.4518</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11692.8299</v>
+        <v>-11689.4393</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0472</v>
+        <v>0.0467</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>9.619400000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.619400000000001</v>
+        <v>9.600099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>9.619400000000001</v>
+        <v>9.6387</v>
       </c>
       <c r="E14" s="1">
-        <v>11937.9406</v>
+        <v>11913.3142</v>
       </c>
       <c r="F14" s="1">
-        <v>-11937.9406</v>
+        <v>-11913.3142</v>
       </c>
       <c r="H14" s="1">
-        <v>114835.8261</v>
+        <v>114369.0073</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>114835.8261</v>
+        <v>114369.0073</v>
       </c>
       <c r="K14" s="1">
-        <v>123506.6668</v>
+        <v>123499.6432</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3457</v>
+        <v>10.3665</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114835.8261</v>
+        <v>114369.0073</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0023</v>
+        <v>0.0019</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>11.3141</v>
       </c>
       <c r="C2" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D2" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.003</v>
       </c>
       <c r="C3" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D3" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E3" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>908.843</v>
+        <v>907.0213</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9725.0334</v>
+        <v>9686.1548</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9725.0334</v>
+        <v>9686.1548</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0275</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.1102</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E4" s="1">
-        <v>1792.6959</v>
+        <v>1789.1044</v>
       </c>
       <c r="F4" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19917.2104</v>
+        <v>19837.5894</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19917.2104</v>
+        <v>19837.5894</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.1564</v>
+        <v>11.1788</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0097</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>10.623</v>
       </c>
       <c r="C5" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D5" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E5" s="1">
-        <v>2692.7616</v>
+        <v>2687.3752</v>
       </c>
       <c r="F5" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28605.2069</v>
+        <v>28490.7457</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28605.2069</v>
+        <v>28490.7457</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.141</v>
+        <v>11.1633</v>
       </c>
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
       <c r="N5" s="1">
-        <v>161.3426</v>
+        <v>161.0194</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9838.6574</v>
+        <v>-9838.980600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0439</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>9.977</v>
       </c>
       <c r="C6" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E6" s="1">
-        <v>3634.1153</v>
+        <v>3626.8452</v>
       </c>
       <c r="F6" s="1">
-        <v>1018.4768</v>
+        <v>1016.4069</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>36257.5684</v>
+        <v>36112.4972</v>
       </c>
       <c r="I6" s="1">
-        <v>161.3426</v>
+        <v>161.0194</v>
       </c>
       <c r="J6" s="1">
-        <v>36418.911</v>
+        <v>36273.5166</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.0068</v>
+        <v>11.0289</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10161.3426</v>
+        <v>-10161.0194</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0566</v>
+        <v>-0.0576</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.5542</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E7" s="1">
-        <v>4652.5921</v>
+        <v>4643.252</v>
       </c>
       <c r="F7" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49104.3872</v>
+        <v>48907.8379</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49104.3872</v>
+        <v>48907.8379</v>
       </c>
       <c r="K7" s="1">
-        <v>50161.3426</v>
+        <v>50161.0194</v>
       </c>
       <c r="L7" s="1">
-        <v>10.7814</v>
+        <v>10.803</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0579</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.7815</v>
       </c>
       <c r="C8" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D8" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E8" s="1">
-        <v>5600.0822</v>
+        <v>5588.8427</v>
       </c>
       <c r="F8" s="1">
-        <v>892.5209</v>
+        <v>916.7939</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60377.2859</v>
+        <v>60135.3889</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60377.2859</v>
+        <v>60135.3889</v>
       </c>
       <c r="K8" s="1">
-        <v>60161.3426</v>
+        <v>60161.0194</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7429</v>
+        <v>10.7645</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9622.714099999999</v>
+        <v>-9904.2166</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0215</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.9292</v>
       </c>
       <c r="C9" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D9" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E9" s="1">
-        <v>6492.6031</v>
+        <v>6505.6367</v>
       </c>
       <c r="F9" s="1">
-        <v>827.2374</v>
+        <v>828.9008</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70958.9575</v>
+        <v>70958.9308</v>
       </c>
       <c r="I9" s="1">
-        <v>377.2859</v>
+        <v>95.7834</v>
       </c>
       <c r="J9" s="1">
-        <v>71336.2433</v>
+        <v>71054.7142</v>
       </c>
       <c r="K9" s="1">
-        <v>69784.05680000001</v>
+        <v>70065.236</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7482</v>
+        <v>10.7699</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9041.0425</v>
+        <v>-9077.375</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0136</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.337</v>
       </c>
       <c r="C10" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D10" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E10" s="1">
-        <v>7319.8404</v>
+        <v>7334.5374</v>
       </c>
       <c r="F10" s="1">
-        <v>1096.6667</v>
+        <v>1063.7891</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>75665.1905</v>
+        <v>75665.2884</v>
       </c>
       <c r="I10" s="1">
-        <v>1336.2433</v>
+        <v>1018.4084</v>
       </c>
       <c r="J10" s="1">
-        <v>77001.4338</v>
+        <v>76683.69680000001</v>
       </c>
       <c r="K10" s="1">
-        <v>78825.0993</v>
+        <v>79142.611</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7687</v>
+        <v>10.7904</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11336.2433</v>
+        <v>-11018.4084</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0533</v>
+        <v>-0.0539</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>9.6417</v>
       </c>
       <c r="C11" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E11" s="1">
-        <v>8416.507100000001</v>
+        <v>8398.326499999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>81149.43640000001</v>
+        <v>80812.05710000001</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>81149.43640000001</v>
+        <v>80812.05710000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90161.3426</v>
+        <v>90161.0194</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7124</v>
+        <v>10.7356</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3293.9282</v>
+        <v>3300.5418</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6706.0718</v>
+        <v>-6699.4582</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0673</v>
+        <v>-0.0677</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>9.1572</v>
       </c>
       <c r="C12" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D12" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>9453.668600000001</v>
+        <v>9433.4161</v>
       </c>
       <c r="F12" s="1">
-        <v>1451.746</v>
+        <v>1449.5555</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>86569.13400000001</v>
+        <v>86211.046</v>
       </c>
       <c r="I12" s="1">
-        <v>3293.9282</v>
+        <v>3300.5418</v>
       </c>
       <c r="J12" s="1">
-        <v>89863.0622</v>
+        <v>89511.5879</v>
       </c>
       <c r="K12" s="1">
-        <v>100161.3426</v>
+        <v>100161.0194</v>
       </c>
       <c r="L12" s="1">
-        <v>10.595</v>
+        <v>10.6177</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13293.9282</v>
+        <v>-13300.5418</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0141</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>9.597</v>
       </c>
       <c r="C13" s="1">
-        <v>9.597</v>
+        <v>9.5778</v>
       </c>
       <c r="D13" s="1">
-        <v>9.597</v>
+        <v>9.616199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>10905.4146</v>
+        <v>10882.9716</v>
       </c>
       <c r="F13" s="1">
-        <v>1041.9923</v>
+        <v>1039.9118</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>104659.2635</v>
+        <v>104234.9254</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104659.2635</v>
+        <v>104234.9254</v>
       </c>
       <c r="K13" s="1">
-        <v>113455.2708</v>
+        <v>113461.5612</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4036</v>
+        <v>10.4256</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.048</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>9.619400000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.619400000000001</v>
+        <v>9.600099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>9.619400000000001</v>
+        <v>9.6387</v>
       </c>
       <c r="E14" s="1">
-        <v>11947.4068</v>
+        <v>11922.8834</v>
       </c>
       <c r="F14" s="1">
-        <v>-11947.4068</v>
+        <v>-11922.8834</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114926.8854</v>
+        <v>114460.8731</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>114926.8854</v>
+        <v>114460.8731</v>
       </c>
       <c r="K14" s="1">
-        <v>123455.2708</v>
+        <v>123461.5612</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3332</v>
+        <v>10.355</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114926.8854</v>
+        <v>114460.8731</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0023</v>
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2152,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>11.3141</v>
       </c>
       <c r="C2" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D2" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.003</v>
       </c>
       <c r="C3" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D3" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E3" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>908.843</v>
+        <v>907.0213</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9725.0334</v>
+        <v>9686.1548</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9725.0334</v>
+        <v>9686.1548</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0275</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.1102</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E4" s="1">
-        <v>1792.6959</v>
+        <v>1789.1044</v>
       </c>
       <c r="F4" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19917.2104</v>
+        <v>19837.5894</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19917.2104</v>
+        <v>19837.5894</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.1564</v>
+        <v>11.1788</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0097</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>10.623</v>
       </c>
       <c r="C5" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D5" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E5" s="1">
-        <v>2692.7616</v>
+        <v>2687.3752</v>
       </c>
       <c r="F5" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28605.2069</v>
+        <v>28490.7457</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28605.2069</v>
+        <v>28490.7457</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.141</v>
+        <v>11.1633</v>
       </c>
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
       <c r="N5" s="1">
-        <v>161.3426</v>
+        <v>161.0194</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9838.6574</v>
+        <v>-9838.980600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0439</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>9.977</v>
       </c>
       <c r="C6" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E6" s="1">
-        <v>3634.1153</v>
+        <v>3626.8452</v>
       </c>
       <c r="F6" s="1">
-        <v>1018.4768</v>
+        <v>1016.4069</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>36257.5684</v>
+        <v>36112.4972</v>
       </c>
       <c r="I6" s="1">
-        <v>161.3426</v>
+        <v>161.0194</v>
       </c>
       <c r="J6" s="1">
-        <v>36418.911</v>
+        <v>36273.5166</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.0068</v>
+        <v>11.0289</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10161.3426</v>
+        <v>-10161.0194</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0566</v>
+        <v>-0.0576</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.5542</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E7" s="1">
-        <v>4652.5921</v>
+        <v>4643.252</v>
       </c>
       <c r="F7" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49104.3872</v>
+        <v>48907.8379</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49104.3872</v>
+        <v>48907.8379</v>
       </c>
       <c r="K7" s="1">
-        <v>50161.3426</v>
+        <v>50161.0194</v>
       </c>
       <c r="L7" s="1">
-        <v>10.7814</v>
+        <v>10.803</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0579</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.7815</v>
       </c>
       <c r="C8" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D8" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E8" s="1">
-        <v>5600.0822</v>
+        <v>5588.8427</v>
       </c>
       <c r="F8" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>60377.2859</v>
+        <v>60135.3889</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60377.2859</v>
+        <v>60135.3889</v>
       </c>
       <c r="K8" s="1">
-        <v>60161.3426</v>
+        <v>60161.0194</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7429</v>
+        <v>10.7645</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0215</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.9292</v>
       </c>
       <c r="C9" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D9" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E9" s="1">
-        <v>6527.5969</v>
+        <v>6514.503</v>
       </c>
       <c r="F9" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71341.41190000001</v>
+        <v>71055.6381</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>71341.41190000001</v>
+        <v>71055.6381</v>
       </c>
       <c r="K9" s="1">
-        <v>70161.3426</v>
+        <v>70161.0194</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7484</v>
+        <v>10.77</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0137</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.337</v>
       </c>
       <c r="C10" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D10" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E10" s="1">
-        <v>7442.5769</v>
+        <v>7427.6532</v>
       </c>
       <c r="F10" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>76933.9179</v>
+        <v>76625.8991</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76933.9179</v>
+        <v>76625.8991</v>
       </c>
       <c r="K10" s="1">
-        <v>80161.3426</v>
+        <v>80161.0194</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7706</v>
+        <v>10.7922</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0542</v>
+        <v>-0.0547</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>9.6417</v>
       </c>
       <c r="C11" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E11" s="1">
-        <v>8409.9756</v>
+        <v>8393.1185</v>
       </c>
       <c r="F11" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>81086.4618</v>
+        <v>80761.94379999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81086.4618</v>
+        <v>80761.94379999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90161.3426</v>
+        <v>90161.0194</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7208</v>
+        <v>10.7423</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3349.1596</v>
+        <v>3342.444</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6650.8404</v>
+        <v>-6657.556</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0673</v>
+        <v>-0.0677</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>9.1572</v>
       </c>
       <c r="C12" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D12" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>9447.1371</v>
+        <v>9428.2081</v>
       </c>
       <c r="F12" s="1">
-        <v>1457.7774</v>
+        <v>1454.1222</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>86509.3239</v>
+        <v>86163.45080000001</v>
       </c>
       <c r="I12" s="1">
-        <v>3349.1596</v>
+        <v>3342.444</v>
       </c>
       <c r="J12" s="1">
-        <v>89858.4835</v>
+        <v>89505.8947</v>
       </c>
       <c r="K12" s="1">
-        <v>100161.3426</v>
+        <v>100161.0194</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6023</v>
+        <v>10.6235</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13349.1596</v>
+        <v>-13342.444</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0135</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>9.597</v>
       </c>
       <c r="C13" s="1">
-        <v>9.597</v>
+        <v>9.5778</v>
       </c>
       <c r="D13" s="1">
-        <v>9.597</v>
+        <v>9.616199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>10904.9145</v>
+        <v>10882.3303</v>
       </c>
       <c r="F13" s="1">
-        <v>1041.9923</v>
+        <v>1039.9118</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>104654.4649</v>
+        <v>104228.7832</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104654.4649</v>
+        <v>104228.7832</v>
       </c>
       <c r="K13" s="1">
-        <v>113510.5023</v>
+        <v>113503.4633</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4091</v>
+        <v>10.4301</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.048</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>9.619400000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.619400000000001</v>
+        <v>9.600099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>9.619400000000001</v>
+        <v>9.6387</v>
       </c>
       <c r="E14" s="1">
-        <v>11946.9068</v>
+        <v>11922.2421</v>
       </c>
       <c r="F14" s="1">
-        <v>-11946.9068</v>
+        <v>-11922.2421</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114922.0756</v>
+        <v>114454.7166</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>114922.0756</v>
+        <v>114454.7166</v>
       </c>
       <c r="K14" s="1">
-        <v>123510.5023</v>
+        <v>123503.4633</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3383</v>
+        <v>10.3591</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114922.0756</v>
+        <v>114454.7166</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0023</v>
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2920,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -2992,16 +2992,16 @@
         <v>11.3141</v>
       </c>
       <c r="C2" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D2" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.003</v>
       </c>
       <c r="C3" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D3" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E3" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>908.843</v>
+        <v>907.0213</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9725.0334</v>
+        <v>9686.1548</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9725.0334</v>
+        <v>9686.1548</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0275</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.1102</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E4" s="1">
-        <v>1792.6959</v>
+        <v>1789.1044</v>
       </c>
       <c r="F4" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19917.2104</v>
+        <v>19837.5894</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19917.2104</v>
+        <v>19837.5894</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.1564</v>
+        <v>11.1788</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0097</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>10.623</v>
       </c>
       <c r="C5" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D5" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E5" s="1">
-        <v>2692.7616</v>
+        <v>2687.3752</v>
       </c>
       <c r="F5" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28605.2069</v>
+        <v>28490.7457</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28605.2069</v>
+        <v>28490.7457</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.141</v>
+        <v>11.1633</v>
       </c>
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
       <c r="N5" s="1">
-        <v>161.3426</v>
+        <v>161.0194</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9838.6574</v>
+        <v>-9838.980600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0439</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>9.977</v>
       </c>
       <c r="C6" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E6" s="1">
-        <v>3634.1153</v>
+        <v>3626.8452</v>
       </c>
       <c r="F6" s="1">
-        <v>1018.4768</v>
+        <v>1016.4069</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>36257.5684</v>
+        <v>36112.4972</v>
       </c>
       <c r="I6" s="1">
-        <v>161.3426</v>
+        <v>161.0194</v>
       </c>
       <c r="J6" s="1">
-        <v>36418.911</v>
+        <v>36273.5166</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.0068</v>
+        <v>11.0289</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10161.3426</v>
+        <v>-10161.0194</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0566</v>
+        <v>-0.0576</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.5542</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E7" s="1">
-        <v>4652.5921</v>
+        <v>4643.252</v>
       </c>
       <c r="F7" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49104.3872</v>
+        <v>48907.8379</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49104.3872</v>
+        <v>48907.8379</v>
       </c>
       <c r="K7" s="1">
-        <v>50161.3426</v>
+        <v>50161.0194</v>
       </c>
       <c r="L7" s="1">
-        <v>10.7814</v>
+        <v>10.803</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0579</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.7815</v>
       </c>
       <c r="C8" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D8" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E8" s="1">
-        <v>5600.0822</v>
+        <v>5588.8427</v>
       </c>
       <c r="F8" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60377.2859</v>
+        <v>60135.3889</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60377.2859</v>
+        <v>60135.3889</v>
       </c>
       <c r="K8" s="1">
-        <v>60161.3426</v>
+        <v>60161.0194</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7429</v>
+        <v>10.7645</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0215</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.9292</v>
       </c>
       <c r="C9" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D9" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E9" s="1">
-        <v>6527.5969</v>
+        <v>6514.503</v>
       </c>
       <c r="F9" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>71341.41190000001</v>
+        <v>71055.6381</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>71341.41190000001</v>
+        <v>71055.6381</v>
       </c>
       <c r="K9" s="1">
-        <v>70161.3426</v>
+        <v>70161.0194</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7484</v>
+        <v>10.77</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0137</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.337</v>
       </c>
       <c r="C10" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D10" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E10" s="1">
-        <v>7442.5769</v>
+        <v>7427.6532</v>
       </c>
       <c r="F10" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>76933.9179</v>
+        <v>76625.8991</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76933.9179</v>
+        <v>76625.8991</v>
       </c>
       <c r="K10" s="1">
-        <v>80161.3426</v>
+        <v>80161.0194</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7706</v>
+        <v>10.7922</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0542</v>
+        <v>-0.0547</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>9.6417</v>
       </c>
       <c r="C11" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E11" s="1">
-        <v>8409.9756</v>
+        <v>8393.1185</v>
       </c>
       <c r="F11" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>81086.4618</v>
+        <v>80761.94379999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81086.4618</v>
+        <v>80761.94379999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90161.3426</v>
+        <v>90161.0194</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7208</v>
+        <v>10.7423</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3349.1596</v>
+        <v>3342.444</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6650.8404</v>
+        <v>-6657.556</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0673</v>
+        <v>-0.0677</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>9.1572</v>
       </c>
       <c r="C12" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D12" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>9447.1371</v>
+        <v>9428.2081</v>
       </c>
       <c r="F12" s="1">
-        <v>1457.7774</v>
+        <v>1454.1222</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>86509.3239</v>
+        <v>86163.45080000001</v>
       </c>
       <c r="I12" s="1">
-        <v>3349.1596</v>
+        <v>3342.444</v>
       </c>
       <c r="J12" s="1">
-        <v>89858.4835</v>
+        <v>89505.8947</v>
       </c>
       <c r="K12" s="1">
-        <v>100161.3426</v>
+        <v>100161.0194</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6023</v>
+        <v>10.6235</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13349.1596</v>
+        <v>-13342.444</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0135</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>9.597</v>
       </c>
       <c r="C13" s="1">
-        <v>9.597</v>
+        <v>9.5778</v>
       </c>
       <c r="D13" s="1">
-        <v>9.597</v>
+        <v>9.616199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>10904.9145</v>
+        <v>10882.3303</v>
       </c>
       <c r="F13" s="1">
-        <v>1041.9923</v>
+        <v>1039.9118</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>104654.4649</v>
+        <v>104228.7832</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104654.4649</v>
+        <v>104228.7832</v>
       </c>
       <c r="K13" s="1">
-        <v>113510.5023</v>
+        <v>113503.4633</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4091</v>
+        <v>10.4301</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.048</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>9.619400000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.619400000000001</v>
+        <v>9.600099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>9.619400000000001</v>
+        <v>9.6387</v>
       </c>
       <c r="E14" s="1">
-        <v>11946.9068</v>
+        <v>11922.2421</v>
       </c>
       <c r="F14" s="1">
-        <v>-11946.9068</v>
+        <v>-11922.2421</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114922.0756</v>
+        <v>114454.7166</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>114922.0756</v>
+        <v>114454.7166</v>
       </c>
       <c r="K14" s="1">
-        <v>123510.5023</v>
+        <v>123503.4633</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3383</v>
+        <v>10.3591</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114922.0756</v>
+        <v>114454.7166</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0023</v>
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3688,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>11.3141</v>
       </c>
       <c r="C2" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D2" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.003</v>
       </c>
       <c r="C3" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D3" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E3" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>908.843</v>
+        <v>907.0213</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9725.0334</v>
+        <v>9686.1548</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9725.0334</v>
+        <v>9686.1548</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0275</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.1102</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E4" s="1">
-        <v>1792.6959</v>
+        <v>1789.1044</v>
       </c>
       <c r="F4" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19917.2104</v>
+        <v>19837.5894</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19917.2104</v>
+        <v>19837.5894</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.1564</v>
+        <v>11.1788</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0097</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>10.623</v>
       </c>
       <c r="C5" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D5" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E5" s="1">
-        <v>2692.7616</v>
+        <v>2687.3752</v>
       </c>
       <c r="F5" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28605.2069</v>
+        <v>28490.7457</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28605.2069</v>
+        <v>28490.7457</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.141</v>
+        <v>11.1633</v>
       </c>
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
       <c r="N5" s="1">
-        <v>161.3426</v>
+        <v>161.0194</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9838.6574</v>
+        <v>-9838.980600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0439</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>9.977</v>
       </c>
       <c r="C6" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E6" s="1">
-        <v>3634.1153</v>
+        <v>3626.8452</v>
       </c>
       <c r="F6" s="1">
-        <v>1018.4768</v>
+        <v>1016.4069</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>36257.5684</v>
+        <v>36112.4972</v>
       </c>
       <c r="I6" s="1">
-        <v>161.3426</v>
+        <v>161.0194</v>
       </c>
       <c r="J6" s="1">
-        <v>36418.911</v>
+        <v>36273.5166</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.0068</v>
+        <v>11.0289</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10161.3426</v>
+        <v>-10161.0194</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0566</v>
+        <v>-0.0576</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.5542</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E7" s="1">
-        <v>4652.5921</v>
+        <v>4643.252</v>
       </c>
       <c r="F7" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49104.3872</v>
+        <v>48907.8379</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49104.3872</v>
+        <v>48907.8379</v>
       </c>
       <c r="K7" s="1">
-        <v>50161.3426</v>
+        <v>50161.0194</v>
       </c>
       <c r="L7" s="1">
-        <v>10.7814</v>
+        <v>10.803</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0579</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.7815</v>
       </c>
       <c r="C8" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D8" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E8" s="1">
-        <v>5600.0822</v>
+        <v>5588.8427</v>
       </c>
       <c r="F8" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60377.2859</v>
+        <v>60135.3889</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60377.2859</v>
+        <v>60135.3889</v>
       </c>
       <c r="K8" s="1">
-        <v>60161.3426</v>
+        <v>60161.0194</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7429</v>
+        <v>10.7645</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0215</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.9292</v>
       </c>
       <c r="C9" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D9" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E9" s="1">
-        <v>6527.5969</v>
+        <v>6514.503</v>
       </c>
       <c r="F9" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71341.41190000001</v>
+        <v>71055.6381</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>71341.41190000001</v>
+        <v>71055.6381</v>
       </c>
       <c r="K9" s="1">
-        <v>70161.3426</v>
+        <v>70161.0194</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7484</v>
+        <v>10.77</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0137</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.337</v>
       </c>
       <c r="C10" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D10" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E10" s="1">
-        <v>7442.5769</v>
+        <v>7427.6532</v>
       </c>
       <c r="F10" s="1">
-        <v>967.3987</v>
+        <v>965.4653</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>76933.9179</v>
+        <v>76625.8991</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76933.9179</v>
+        <v>76625.8991</v>
       </c>
       <c r="K10" s="1">
-        <v>80161.3426</v>
+        <v>80161.0194</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7706</v>
+        <v>10.7922</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0542</v>
+        <v>-0.0547</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>9.6417</v>
       </c>
       <c r="C11" s="1">
-        <v>9.6417</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.6417</v>
+        <v>9.661</v>
       </c>
       <c r="E11" s="1">
-        <v>8409.9756</v>
+        <v>8393.1185</v>
       </c>
       <c r="F11" s="1">
-        <v>1037.1615</v>
+        <v>1035.0895</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>81086.4618</v>
+        <v>80761.94379999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81086.4618</v>
+        <v>80761.94379999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90161.3426</v>
+        <v>90161.0194</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7208</v>
+        <v>10.7423</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3349.1596</v>
+        <v>3342.444</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6650.8404</v>
+        <v>-6657.556</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0673</v>
+        <v>-0.0677</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>9.1572</v>
       </c>
       <c r="C12" s="1">
-        <v>9.1572</v>
+        <v>9.1389</v>
       </c>
       <c r="D12" s="1">
-        <v>9.1572</v>
+        <v>9.175599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>9447.1371</v>
+        <v>9428.2081</v>
       </c>
       <c r="F12" s="1">
-        <v>1457.7774</v>
+        <v>1454.1222</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>86509.3239</v>
+        <v>86163.45080000001</v>
       </c>
       <c r="I12" s="1">
-        <v>3349.1596</v>
+        <v>3342.444</v>
       </c>
       <c r="J12" s="1">
-        <v>89858.4835</v>
+        <v>89505.8947</v>
       </c>
       <c r="K12" s="1">
-        <v>100161.3426</v>
+        <v>100161.0194</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6023</v>
+        <v>10.6235</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13349.1596</v>
+        <v>-13342.444</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0135</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>9.597</v>
       </c>
       <c r="C13" s="1">
-        <v>9.597</v>
+        <v>9.5778</v>
       </c>
       <c r="D13" s="1">
-        <v>9.597</v>
+        <v>9.616199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>10904.9145</v>
+        <v>10882.3303</v>
       </c>
       <c r="F13" s="1">
-        <v>1041.9923</v>
+        <v>1039.9118</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>104654.4649</v>
+        <v>104228.7832</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104654.4649</v>
+        <v>104228.7832</v>
       </c>
       <c r="K13" s="1">
-        <v>113510.5023</v>
+        <v>113503.4633</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4091</v>
+        <v>10.4301</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.048</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>9.619400000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>9.619400000000001</v>
+        <v>9.600099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>9.619400000000001</v>
+        <v>9.6387</v>
       </c>
       <c r="E14" s="1">
-        <v>11946.9068</v>
+        <v>11922.2421</v>
       </c>
       <c r="F14" s="1">
-        <v>-11946.9068</v>
+        <v>-11922.2421</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114922.0756</v>
+        <v>114454.7166</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>114922.0756</v>
+        <v>114454.7166</v>
       </c>
       <c r="K14" s="1">
-        <v>123510.5023</v>
+        <v>123503.4633</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3383</v>
+        <v>10.3591</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114922.0756</v>
+        <v>114454.7166</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0023</v>
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3457</v>
+        <v>10.3665</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3332</v>
+        <v>10.355</v>
       </c>
       <c r="E3" s="1">
-        <v>10.3383</v>
+        <v>10.3591</v>
       </c>
       <c r="F3" s="1">
-        <v>10.3383</v>
+        <v>10.3591</v>
       </c>
       <c r="G3" s="1">
-        <v>10.3383</v>
+        <v>10.3591</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1507</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1107</v>
+        <v>-0.1232</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1095</v>
+        <v>-0.1221</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1097</v>
+        <v>-0.1223</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1097</v>
+        <v>-0.1223</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1097</v>
+        <v>-0.1223</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1445</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1371</v>
+        <v>0.1375</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1373</v>
+        <v>0.1377</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1376</v>
+        <v>0.1379</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1376</v>
+        <v>0.1379</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1376</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.1834</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.9555</v>
+        <v>-1.0444</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.9457</v>
+        <v>-1.0343</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.9452</v>
+        <v>-1.0341</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.9452</v>
+        <v>-1.0341</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.9452</v>
+        <v>-1.0341</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.079</v>
+        <v>-0.0861</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0776</v>
+        <v>-0.08459999999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0775</v>
+        <v>-0.08459999999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0775</v>
+        <v>-0.08459999999999999</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0775</v>
+        <v>-0.08459999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3506.6668</v>
+        <v>3499.6432</v>
       </c>
       <c r="D8" s="1">
-        <v>3455.2708</v>
+        <v>3461.5612</v>
       </c>
       <c r="E8" s="1">
-        <v>3510.5023</v>
+        <v>3503.4633</v>
       </c>
       <c r="F8" s="1">
-        <v>3510.5023</v>
+        <v>3503.4633</v>
       </c>
       <c r="G8" s="1">
-        <v>3510.5023</v>
+        <v>3503.4633</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P108_KFSDIV.xlsx
+++ b/output/1Y_P108_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4022.4062</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9264</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9276</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9272</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9272</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
